--- a/medicine/Psychotrope/St._Bernardus/St._Bernardus.xlsx
+++ b/medicine/Psychotrope/St._Bernardus/St._Bernardus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Saint Bernardus (Sint Bernardus en néerlandais) ou St. Bernardus (nom de marque déposée) est une bière d'abbaye brassée en Belgique. Contrairement à ce que son nom pourrait laisser penser, la Saint Bernardus n'est pas brassée par une abbaye, mais par la brasserie Brouwerij St. Bernard à Watou. Cependant, son histoire est liée à celle du monastère trappiste Saint-Sixtus à Westvleteren en Flandre-Occidentale.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du XIXe siècle une vague d’anticléricalisme déferla sur la France : les abbayes furent menacées de fermeture. Le Père Abbé de l’abbaye du Mont des Cats chercha refuge à Watou en Belgique dans une ferme qu’ils appelèrent Refuge Notre-Dame-de-Saint-Bernard (origine du nom « St. Bernardus »). Pour subvenir à leurs besoins les moines fabriquèrent du fromage.
 En 1934, tout danger étant écarté, les moines quittèrent définitivement le refuge Notre-Dame-de-Saint-Bernard pour réintégrer leur abbaye. Évariste Deconinck reprit la fromagerie.
@@ -547,12 +561,14 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Après le brassage, la bière mûrit naturellement pendant trois mois, avant d’être soutirée en bouteille sans être filtrée. Une seconde fermentation résultant de l’ajout de sucre et de levure lui confère naturellement sa teneur en gaz carbonique et une belle mousse veloutée.
 La brasserie St. Bernard fabrique une gamme de 8 bières :
 St. Bernardus Abt 12 : bière brune à l'arôme très fruité, délicate d’une couleur profonde titrant 10 % en volume d'alcool ;
-La bière St.Bernardus Abt 12 est souvent comparée à la bière trappiste Westvleteren 12 qui fut reconnue meilleure bière du monde. Les recettes initiales ont une origine commune et, d'après de nombreux amateurs de bières, le goût et la saveur de ces deux bières sont très proches[1],[2].
+La bière St.Bernardus Abt 12 est souvent comparée à la bière trappiste Westvleteren 12 qui fut reconnue meilleure bière du monde. Les recettes initiales ont une origine commune et, d'après de nombreux amateurs de bières, le goût et la saveur de ces deux bières sont très proches,.
 St. Bernardus Prior 8 : bière de haute fermentation, fermentée en bouteille, au goût fruité, au malt et au houblon, mousse crémeuse titrant 8 % en volume d'alcool ;
 St. Bernardus Pater 6 : bière de couleur châtaigne de haute fermentation titrant 6,7 % en volume d'alcool ;
 St. Bernardus Tripel : bière de haute fermentation, couleur d'ambre dorée, arôme puissant, moelleuse, au malt et au houblon titrant 8 % en volume d'alcool ;
